--- a/com.freecrm/src/test/resources/testcase_freecrm.xlsx
+++ b/com.freecrm/src/test/resources/testcase_freecrm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arifsmacpro/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arifsmacpro/IdeaProjects/SeleniumBootcamp/com.freecrm/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{607D570D-27C2-2742-9792-DD549E897DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5DF88D-280E-D74E-A31D-01CE6C4AD91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{0E7E69CA-A792-6B49-B747-1229E40E250C}"/>
+    <workbookView xWindow="-32220" yWindow="-5100" windowWidth="32220" windowHeight="20860" xr2:uid="{0E7E69CA-A792-6B49-B747-1229E40E250C}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case 1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Pre-Conditions</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Post Conditions</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CRM-1-1</t>
+  </si>
+  <si>
+    <t>CRM-1-2</t>
+  </si>
+  <si>
+    <t>CRM-1-3</t>
+  </si>
+  <si>
+    <t>CRM-1-4</t>
+  </si>
+  <si>
+    <t>CRM-1-5</t>
+  </si>
+  <si>
+    <t>CRM-1-6</t>
+  </si>
+  <si>
+    <t>CRM-1-7</t>
+  </si>
+  <si>
+    <t>CRM-1-8</t>
+  </si>
+  <si>
+    <t>CRM-1-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Var(--cds-font-family-source-sa"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,18 +453,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C2F731-ABF1-0D4A-B51E-66FF5806A756}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="23">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="23">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="23">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="23">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>